--- a/Data/OneScenario/Instance_storage_costs_option1.xlsx
+++ b/Data/OneScenario/Instance_storage_costs_option1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/OneScenario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0861F852-0D1B-0049-B68A-89572222B36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911259AD-C9DD-544F-A610-CE3A695F6AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="22060" firstSheet="1" activeTab="14" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="-28800" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -6452,7 +6452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B95C95-5100-B242-B62A-0A2629824349}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -8224,8 +8224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8447,7 +8447,8 @@
         <v>10</v>
       </c>
       <c r="N3" s="2">
-        <v>100</v>
+        <f>IF(C3="Market",100,0)</f>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <f>IF(C3="Market",1.499,1.5)</f>
@@ -8560,10 +8561,11 @@
         <v>10</v>
       </c>
       <c r="N4" s="2">
-        <v>100</v>
+        <f t="shared" ref="N4:N61" si="1">IF(C4="Market",100,0)</f>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O61" si="1">IF(C4="Market",1.499,1.5)</f>
+        <f t="shared" ref="O4:O61" si="2">IF(C4="Market",1.499,1.5)</f>
         <v>1.5</v>
       </c>
       <c r="P4" s="2">
@@ -8600,38 +8602,38 @@
         <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <f t="shared" ref="AA4:AA61" si="2">M4</f>
+        <f t="shared" ref="AA4:AA61" si="3">M4</f>
         <v>10</v>
       </c>
       <c r="AB4" s="3">
         <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <f t="shared" ref="AC4:AC61" si="3">O4</f>
+        <f t="shared" ref="AC4:AC61" si="4">O4</f>
         <v>1.5</v>
       </c>
       <c r="AD4" s="3">
-        <f t="shared" ref="AD4:AD61" si="4">P4</f>
+        <f t="shared" ref="AD4:AD61" si="5">P4</f>
         <v>5</v>
       </c>
       <c r="AE4" s="3">
-        <f t="shared" ref="AE4:AE61" si="5">Q4</f>
+        <f t="shared" ref="AE4:AE61" si="6">Q4</f>
         <v>5</v>
       </c>
       <c r="AF4" s="3">
-        <f t="shared" ref="AF4:AF61" si="6">R4</f>
+        <f t="shared" ref="AF4:AF61" si="7">R4</f>
         <v>5.2</v>
       </c>
       <c r="AG4" s="3">
-        <f t="shared" ref="AG4:AG61" si="7">S4</f>
+        <f t="shared" ref="AG4:AG61" si="8">S4</f>
         <v>5.2</v>
       </c>
       <c r="AH4" s="3">
-        <f t="shared" ref="AH4:AH61" si="8">T4</f>
+        <f t="shared" ref="AH4:AH61" si="9">T4</f>
         <v>5.4</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" ref="AI4:AI61" si="9">U4</f>
+        <f t="shared" ref="AI4:AI61" si="10">U4</f>
         <v>5.4</v>
       </c>
     </row>
@@ -8675,10 +8677,11 @@
         <v>10</v>
       </c>
       <c r="N5" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P5" s="2">
@@ -8715,38 +8718,38 @@
         <v>0</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB5" s="3">
         <v>0</v>
       </c>
       <c r="AC5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF5" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG5" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG5" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI5" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -8788,10 +8791,11 @@
         <v>10</v>
       </c>
       <c r="N6" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P6" s="2">
@@ -8828,38 +8832,38 @@
         <v>0</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB6" s="3">
         <v>0</v>
       </c>
       <c r="AC6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF6" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG6" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG6" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -8901,10 +8905,11 @@
         <v>10</v>
       </c>
       <c r="N7" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P7" s="2">
@@ -8941,38 +8946,38 @@
         <v>0</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB7" s="3">
         <v>0</v>
       </c>
       <c r="AC7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF7" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG7" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG7" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH7" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI7" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9016,10 +9021,11 @@
         <v>10</v>
       </c>
       <c r="N8" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P8" s="2">
@@ -9056,38 +9062,38 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>
       </c>
       <c r="AC8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF8" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG8" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG8" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9131,10 +9137,11 @@
         <v>10</v>
       </c>
       <c r="N9" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P9" s="2">
@@ -9171,38 +9178,38 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG9" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9243,10 +9250,11 @@
         <v>10</v>
       </c>
       <c r="N10" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P10" s="2">
@@ -9283,38 +9291,38 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG10" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9356,10 +9364,11 @@
         <v>10</v>
       </c>
       <c r="N11" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P11" s="2">
@@ -9396,38 +9405,38 @@
         <v>0</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB11" s="3">
         <v>0</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG11" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG11" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9469,10 +9478,11 @@
         <v>10</v>
       </c>
       <c r="N12" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P12" s="2">
@@ -9509,38 +9519,38 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG12" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9582,10 +9592,11 @@
         <v>10</v>
       </c>
       <c r="N13" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P13" s="2">
@@ -9622,38 +9633,38 @@
         <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB13" s="3">
         <v>0</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG13" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG13" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9695,10 +9706,11 @@
         <v>10</v>
       </c>
       <c r="N14" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P14" s="2">
@@ -9735,38 +9747,38 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG14" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG14" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9810,10 +9822,11 @@
         <v>10</v>
       </c>
       <c r="N15" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P15" s="2">
@@ -9850,38 +9863,38 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG15" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG15" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9923,10 +9936,11 @@
         <v>10</v>
       </c>
       <c r="N16" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P16" s="2">
@@ -9963,38 +9977,38 @@
         <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB16" s="3">
         <v>0</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG16" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG16" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10036,10 +10050,11 @@
         <v>10</v>
       </c>
       <c r="N17" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P17" s="2">
@@ -10076,38 +10091,38 @@
         <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB17" s="3">
         <v>0</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG17" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG17" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10149,10 +10164,11 @@
         <v>10</v>
       </c>
       <c r="N18" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P18" s="2">
@@ -10189,38 +10205,38 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG18" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG18" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10264,10 +10280,11 @@
         <v>10</v>
       </c>
       <c r="N19" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="P19" s="2">
@@ -10304,38 +10321,38 @@
         <v>0</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB19" s="3">
         <v>0</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG19" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG19" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10379,10 +10396,11 @@
         <v>10</v>
       </c>
       <c r="N20" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="P20" s="2">
@@ -10419,38 +10437,38 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG20" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG20" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10494,10 +10512,11 @@
         <v>10</v>
       </c>
       <c r="N21" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P21" s="2">
@@ -10534,38 +10553,38 @@
         <v>0</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB21" s="3">
         <v>0</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG21" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG21" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10607,10 +10626,11 @@
         <v>10</v>
       </c>
       <c r="N22" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P22" s="2">
@@ -10647,38 +10667,38 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG22" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG22" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10722,10 +10742,11 @@
         <v>10</v>
       </c>
       <c r="N23" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="P23" s="2">
@@ -10762,38 +10783,38 @@
         <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="AD23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG23" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG23" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10837,10 +10858,11 @@
         <v>10</v>
       </c>
       <c r="N24" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="P24" s="2">
@@ -10877,38 +10899,38 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG24" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG24" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10950,10 +10972,11 @@
         <v>10</v>
       </c>
       <c r="N25" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P25" s="2">
@@ -10990,38 +11013,38 @@
         <v>0</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB25" s="3">
         <v>0</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG25" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG25" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11063,10 +11086,11 @@
         <v>10</v>
       </c>
       <c r="N26" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P26" s="2">
@@ -11103,38 +11127,38 @@
         <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG26" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG26" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11178,10 +11202,11 @@
         <v>10</v>
       </c>
       <c r="N27" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P27" s="2">
@@ -11218,38 +11243,38 @@
         <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF27" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG27" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG27" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11293,10 +11318,11 @@
         <v>10</v>
       </c>
       <c r="N28" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P28" s="2">
@@ -11333,38 +11359,38 @@
         <v>0</v>
       </c>
       <c r="AA28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB28" s="3">
         <v>0</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG28" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG28" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11408,10 +11434,11 @@
         <v>10</v>
       </c>
       <c r="N29" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P29" s="2">
@@ -11448,38 +11475,38 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF29" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG29" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG29" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11521,10 +11548,11 @@
         <v>10</v>
       </c>
       <c r="N30" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P30" s="2">
@@ -11561,38 +11589,38 @@
         <v>0</v>
       </c>
       <c r="AA30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB30" s="3">
         <v>0</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF30" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG30" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG30" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11634,10 +11662,11 @@
         <v>10</v>
       </c>
       <c r="N31" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P31" s="2">
@@ -11674,38 +11703,38 @@
         <v>0</v>
       </c>
       <c r="AA31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB31" s="3">
         <v>0</v>
       </c>
       <c r="AC31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF31" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG31" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG31" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11747,10 +11776,11 @@
         <v>10</v>
       </c>
       <c r="N32" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P32" s="2">
@@ -11787,38 +11817,38 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG32" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG32" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11862,10 +11892,11 @@
         <v>10</v>
       </c>
       <c r="N33" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P33" s="2">
@@ -11902,38 +11933,38 @@
         <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF33" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG33" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG33" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11975,10 +12006,11 @@
         <v>10</v>
       </c>
       <c r="N34" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P34" s="2">
@@ -12015,38 +12047,38 @@
         <v>0</v>
       </c>
       <c r="AA34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB34" s="3">
         <v>0</v>
       </c>
       <c r="AC34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF34" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG34" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG34" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI34" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12088,10 +12120,11 @@
         <v>10</v>
       </c>
       <c r="N35" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P35" s="2">
@@ -12128,38 +12161,38 @@
         <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
       <c r="AC35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF35" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG35" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG35" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI35" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12203,10 +12236,11 @@
         <v>10</v>
       </c>
       <c r="N36" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P36" s="2">
@@ -12243,38 +12277,38 @@
         <v>0</v>
       </c>
       <c r="AA36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB36" s="3">
         <v>0</v>
       </c>
       <c r="AC36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF36" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG36" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG36" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12318,10 +12352,11 @@
         <v>10</v>
       </c>
       <c r="N37" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P37" s="2">
@@ -12358,38 +12393,38 @@
         <v>0</v>
       </c>
       <c r="AA37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB37" s="3">
         <v>0</v>
       </c>
       <c r="AC37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF37" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG37" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG37" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12431,10 +12466,11 @@
         <v>10</v>
       </c>
       <c r="N38" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P38" s="2">
@@ -12471,38 +12507,38 @@
         <v>0</v>
       </c>
       <c r="AA38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB38" s="3">
         <v>0</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF38" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG38" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG38" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12544,10 +12580,11 @@
         <v>10</v>
       </c>
       <c r="N39" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P39" s="2">
@@ -12584,38 +12621,38 @@
         <v>0</v>
       </c>
       <c r="AA39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB39" s="3">
         <v>0</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF39" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG39" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG39" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12657,10 +12694,11 @@
         <v>10</v>
       </c>
       <c r="N40" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P40" s="2">
@@ -12697,38 +12735,38 @@
         <v>0</v>
       </c>
       <c r="AA40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB40" s="3">
         <v>0</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG40" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG40" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12772,10 +12810,11 @@
         <v>10</v>
       </c>
       <c r="N41" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P41" s="2">
@@ -12812,38 +12851,38 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF41" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG41" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG41" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12885,10 +12924,11 @@
         <v>10</v>
       </c>
       <c r="N42" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P42" s="2">
@@ -12925,38 +12965,38 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF42" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG42" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG42" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI42" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13000,10 +13040,11 @@
         <v>10</v>
       </c>
       <c r="N43" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P43" s="2">
@@ -13040,38 +13081,38 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
       </c>
       <c r="AC43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF43" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG43" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG43" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13115,10 +13156,11 @@
         <v>10</v>
       </c>
       <c r="N44" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P44" s="2">
@@ -13155,38 +13197,38 @@
         <v>0</v>
       </c>
       <c r="AA44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB44" s="3">
         <v>0</v>
       </c>
       <c r="AC44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF44" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG44" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG44" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13228,10 +13270,11 @@
         <v>10</v>
       </c>
       <c r="N45" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P45" s="2">
@@ -13268,38 +13311,38 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF45" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG45" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG45" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH45" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13341,10 +13384,11 @@
         <v>10</v>
       </c>
       <c r="N46" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P46" s="2">
@@ -13381,38 +13425,38 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
       <c r="AC46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF46" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG46" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG46" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH46" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI46" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13454,10 +13498,11 @@
         <v>10</v>
       </c>
       <c r="N47" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P47" s="2">
@@ -13494,38 +13539,38 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
       </c>
       <c r="AC47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF47" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG47" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG47" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH47" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13567,10 +13612,11 @@
         <v>10</v>
       </c>
       <c r="N48" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P48" s="2">
@@ -13607,38 +13653,38 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB48" s="3">
         <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF48" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG48" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG48" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI48" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13682,10 +13728,11 @@
         <v>10</v>
       </c>
       <c r="N49" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="P49" s="2">
@@ -13722,38 +13769,38 @@
         <v>0</v>
       </c>
       <c r="AA49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
       <c r="AC49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="AD49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF49" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG49" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG49" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13797,10 +13844,11 @@
         <v>10</v>
       </c>
       <c r="N50" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P50" s="2">
@@ -13837,38 +13885,38 @@
         <v>0</v>
       </c>
       <c r="AA50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB50" s="3">
         <v>0</v>
       </c>
       <c r="AC50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF50" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG50" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG50" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI50" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13912,10 +13960,11 @@
         <v>10</v>
       </c>
       <c r="N51" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P51" s="2">
@@ -13952,38 +14001,38 @@
         <v>0</v>
       </c>
       <c r="AA51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB51" s="3">
         <v>0</v>
       </c>
       <c r="AC51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF51" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG51" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG51" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH51" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14025,10 +14074,11 @@
         <v>10</v>
       </c>
       <c r="N52" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P52" s="2">
@@ -14065,38 +14115,38 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF52" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG52" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG52" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI52" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14138,10 +14188,11 @@
         <v>10</v>
       </c>
       <c r="N53" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P53" s="2">
@@ -14178,38 +14229,38 @@
         <v>0</v>
       </c>
       <c r="AA53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB53" s="3">
         <v>0</v>
       </c>
       <c r="AC53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF53" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG53" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG53" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH53" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14253,10 +14304,11 @@
         <v>10</v>
       </c>
       <c r="N54" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="P54" s="2">
@@ -14293,38 +14345,38 @@
         <v>0</v>
       </c>
       <c r="AA54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB54" s="3">
         <v>0</v>
       </c>
       <c r="AC54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="AD54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF54" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG54" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG54" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14366,10 +14418,11 @@
         <v>10</v>
       </c>
       <c r="N55" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P55" s="2">
@@ -14406,38 +14459,38 @@
         <v>0</v>
       </c>
       <c r="AA55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB55" s="3">
         <v>0</v>
       </c>
       <c r="AC55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF55" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG55" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG55" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI55" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14479,10 +14532,11 @@
         <v>10</v>
       </c>
       <c r="N56" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P56" s="2">
@@ -14519,38 +14573,38 @@
         <v>0</v>
       </c>
       <c r="AA56" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB56" s="3">
         <v>0</v>
       </c>
       <c r="AC56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF56" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG56" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG56" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH56" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI56" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14594,10 +14648,11 @@
         <v>10</v>
       </c>
       <c r="N57" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="P57" s="2">
@@ -14634,38 +14689,38 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
       <c r="AC57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="AD57" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF57" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG57" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG57" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH57" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI57" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14709,10 +14764,11 @@
         <v>10</v>
       </c>
       <c r="N58" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P58" s="2">
@@ -14749,38 +14805,38 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
       <c r="AC58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF58" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG58" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG58" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH58" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI58" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14822,10 +14878,11 @@
         <v>10</v>
       </c>
       <c r="N59" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P59" s="2">
@@ -14862,38 +14919,38 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB59" s="3">
         <v>0</v>
       </c>
       <c r="AC59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF59" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG59" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG59" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH59" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI59" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14937,10 +14994,11 @@
         <v>10</v>
       </c>
       <c r="N60" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="P60" s="2">
@@ -14977,38 +15035,38 @@
         <v>0</v>
       </c>
       <c r="AA60" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB60" s="3">
         <v>0</v>
       </c>
       <c r="AC60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="AD60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF60" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG60" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG60" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH60" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI60" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -15050,10 +15108,11 @@
         <v>10</v>
       </c>
       <c r="N61" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P61" s="2">
@@ -15090,38 +15149,38 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AD61" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF61" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG61" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG61" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH61" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI61" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -34345,7 +34404,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34454,7 +34513,7 @@
         <v>343</v>
       </c>
       <c r="B13">
-        <v>1.1000000000000001</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -34462,7 +34521,7 @@
         <v>344</v>
       </c>
       <c r="B14">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>
